--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_hoog.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7278396952353939</v>
+        <v>0.7263964236600271</v>
       </c>
       <c r="C2">
-        <v>0.7367434074381236</v>
+        <v>0.7334881754064316</v>
       </c>
       <c r="D2">
-        <v>1.472915763396205</v>
+        <v>1.472823318998768</v>
       </c>
       <c r="E2">
-        <v>0.7509309400976281</v>
+        <v>0.7483408004336237</v>
       </c>
       <c r="F2">
-        <v>0.7426472361205931</v>
+        <v>0.740830947129459</v>
       </c>
       <c r="G2">
-        <v>0.7679607490122742</v>
+        <v>0.7653563574070629</v>
       </c>
       <c r="H2">
-        <v>0.7514016920080517</v>
+        <v>0.7487255867942739</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7509603278854455</v>
+        <v>0.7497963153137237</v>
       </c>
       <c r="C3">
-        <v>0.7396973253234428</v>
+        <v>0.7369496738843104</v>
       </c>
       <c r="D3">
-        <v>1.404528090164032</v>
+        <v>1.409469658895177</v>
       </c>
       <c r="E3">
-        <v>0.7543129879167619</v>
+        <v>0.7522648609778715</v>
       </c>
       <c r="F3">
-        <v>0.7569764397548002</v>
+        <v>0.7557067841118835</v>
       </c>
       <c r="G3">
-        <v>0.7693718611195491</v>
+        <v>0.767545930173578</v>
       </c>
       <c r="H3">
-        <v>0.7545648730813738</v>
+        <v>0.7524391359638646</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6791243697324958</v>
+        <v>0.6784402355552254</v>
       </c>
       <c r="C4">
-        <v>0.7631709435925611</v>
+        <v>0.7602560484723868</v>
       </c>
       <c r="D4">
-        <v>1.10117588893987</v>
+        <v>1.082814381615641</v>
       </c>
       <c r="E4">
-        <v>0.7447152770236576</v>
+        <v>0.7427419605067365</v>
       </c>
       <c r="F4">
-        <v>0.6969519603218947</v>
+        <v>0.695716271214237</v>
       </c>
       <c r="G4">
-        <v>0.7511795434102649</v>
+        <v>0.7489833093671484</v>
       </c>
       <c r="H4">
-        <v>0.7448811559344017</v>
+        <v>0.7427761591611421</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7855553617407524</v>
+        <v>0.7845089806605176</v>
       </c>
       <c r="C5">
-        <v>0.7887697274634874</v>
+        <v>0.7861785817351283</v>
       </c>
       <c r="D5">
-        <v>0.4031076710950038</v>
+        <v>0.3980077702589124</v>
       </c>
       <c r="E5">
-        <v>0.7614751886638701</v>
+        <v>0.7596649851233738</v>
       </c>
       <c r="F5">
-        <v>0.778108540458743</v>
+        <v>0.7775079597791049</v>
       </c>
       <c r="G5">
-        <v>0.7739091131583816</v>
+        <v>0.7722547943492591</v>
       </c>
       <c r="H5">
-        <v>0.7612606977589702</v>
+        <v>0.7593728668952565</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7766795084592183</v>
+        <v>0.7756754437877884</v>
       </c>
       <c r="C6">
-        <v>0.7873023466229573</v>
+        <v>0.7846734571989462</v>
       </c>
       <c r="D6">
-        <v>0.2359782089615003</v>
+        <v>0.2390097767754088</v>
       </c>
       <c r="E6">
-        <v>0.7600297680884153</v>
+        <v>0.7583094459532475</v>
       </c>
       <c r="F6">
-        <v>0.7702180336424356</v>
+        <v>0.7695806858902364</v>
       </c>
       <c r="G6">
-        <v>0.7680817454482216</v>
+        <v>0.766576297593929</v>
       </c>
       <c r="H6">
-        <v>0.7597460164878718</v>
+        <v>0.7579578215545946</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.7950516032786239</v>
+        <v>0.7937543922314764</v>
       </c>
       <c r="C7">
-        <v>0.7921910010933361</v>
+        <v>0.7892787435559668</v>
       </c>
       <c r="D7">
-        <v>0.3712436033362387</v>
+        <v>0.3706086512129885</v>
       </c>
       <c r="E7">
-        <v>0.7620948260687492</v>
+        <v>0.7601619967263648</v>
       </c>
       <c r="F7">
-        <v>0.7874260198765315</v>
+        <v>0.7866323612145677</v>
       </c>
       <c r="G7">
-        <v>0.774853009469879</v>
+        <v>0.7730594823287936</v>
       </c>
       <c r="H7">
-        <v>0.7618606137410088</v>
+        <v>0.7598586426095999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.7392743478098092</v>
+        <v>0.7384478743081042</v>
       </c>
       <c r="C8">
-        <v>0.7131087732347487</v>
+        <v>0.709022198366438</v>
       </c>
       <c r="D8">
-        <v>0.3089058767052</v>
+        <v>0.3085576887316853</v>
       </c>
       <c r="E8">
-        <v>0.7410825976545782</v>
+        <v>0.7391238751082457</v>
       </c>
       <c r="F8">
-        <v>0.7326105353653269</v>
+        <v>0.7321063414733795</v>
       </c>
       <c r="G8">
-        <v>0.7084483865663019</v>
+        <v>0.7053807860549471</v>
       </c>
       <c r="H8">
-        <v>0.7409044218325205</v>
+        <v>0.7388605506954972</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.8013312218218147</v>
+        <v>0.8003621903725986</v>
       </c>
       <c r="C9">
-        <v>0.7674571355464832</v>
+        <v>0.7651098808327893</v>
       </c>
       <c r="D9">
-        <v>0.4743711286138547</v>
+        <v>0.473483256811177</v>
       </c>
       <c r="E9">
-        <v>0.7601738797728128</v>
+        <v>0.7585389402505501</v>
       </c>
       <c r="F9">
-        <v>0.7946235719816721</v>
+        <v>0.793596799859918</v>
       </c>
       <c r="G9">
-        <v>0.7553342410886629</v>
+        <v>0.7539730207653869</v>
       </c>
       <c r="H9">
-        <v>0.7600415606603357</v>
+        <v>0.7583282497459432</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7829818180223528</v>
+        <v>0.7818163400102417</v>
       </c>
       <c r="C10">
-        <v>0.7890101517808897</v>
+        <v>0.7863713395062196</v>
       </c>
       <c r="D10">
-        <v>1.289677572814649</v>
+        <v>1.275327798525587</v>
       </c>
       <c r="E10">
-        <v>0.7603405730119269</v>
+        <v>0.7585068958190951</v>
       </c>
       <c r="F10">
-        <v>0.7857495778764459</v>
+        <v>0.7849380575792405</v>
       </c>
       <c r="G10">
-        <v>0.7919050820624624</v>
+        <v>0.790092921855691</v>
       </c>
       <c r="H10">
-        <v>0.7606709418732929</v>
+        <v>0.758778634037358</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.7759357756066759</v>
+        <v>0.7742004243341288</v>
       </c>
       <c r="C11">
-        <v>0.7902825285837873</v>
+        <v>0.78756876434718</v>
       </c>
       <c r="D11">
-        <v>1.16861995391047</v>
+        <v>1.162935609077621</v>
       </c>
       <c r="E11">
-        <v>0.7615851235903913</v>
+        <v>0.7591333756474891</v>
       </c>
       <c r="F11">
-        <v>0.7785635348463784</v>
+        <v>0.7772108670126719</v>
       </c>
       <c r="G11">
-        <v>0.7904327098090828</v>
+        <v>0.7882143195690925</v>
       </c>
       <c r="H11">
-        <v>0.7617886162681718</v>
+        <v>0.7592666848883107</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6583714257902952</v>
+        <v>0.6573517222229365</v>
       </c>
       <c r="C12">
-        <v>0.7914289261779067</v>
+        <v>0.7885821271855722</v>
       </c>
       <c r="D12">
-        <v>0.6281160816728568</v>
+        <v>0.614786416514029</v>
       </c>
       <c r="E12">
-        <v>0.7549024546217092</v>
+        <v>0.7528757606733335</v>
       </c>
       <c r="F12">
-        <v>0.6720624676783191</v>
+        <v>0.6700888040979659</v>
       </c>
       <c r="G12">
-        <v>0.7750006312069551</v>
+        <v>0.7731175937837654</v>
       </c>
       <c r="H12">
-        <v>0.7546460904370509</v>
+        <v>0.7525739072257516</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.778441930465555</v>
+        <v>0.77706033667528</v>
       </c>
       <c r="C13">
-        <v>0.7881705745577458</v>
+        <v>0.7855739167611877</v>
       </c>
       <c r="D13">
-        <v>1.136171362564151</v>
+        <v>1.115428100200711</v>
       </c>
       <c r="E13">
-        <v>0.7597858671778426</v>
+        <v>0.7577073778010187</v>
       </c>
       <c r="F13">
-        <v>0.7801678810071008</v>
+        <v>0.7789775295704988</v>
       </c>
       <c r="G13">
-        <v>0.7877927396491952</v>
+        <v>0.7854760679862451</v>
       </c>
       <c r="H13">
-        <v>0.760028728961453</v>
+        <v>0.7578752676462324</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_hoog.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7263964236600271</v>
+        <v>0.7325767622515603</v>
       </c>
       <c r="C2">
-        <v>0.7334881754064316</v>
+        <v>0.7428738266081906</v>
       </c>
       <c r="D2">
-        <v>1.472823318998768</v>
+        <v>1.594702201724019</v>
       </c>
       <c r="E2">
-        <v>0.7483408004336237</v>
+        <v>0.7524358076969213</v>
       </c>
       <c r="F2">
-        <v>0.740830947129459</v>
+        <v>0.7470683357879488</v>
       </c>
       <c r="G2">
-        <v>0.7653563574070629</v>
+        <v>0.7747833279462306</v>
       </c>
       <c r="H2">
-        <v>0.7487255867942739</v>
+        <v>0.7529190144724247</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7497963153137237</v>
+        <v>0.7565117611137623</v>
       </c>
       <c r="C3">
-        <v>0.7369496738843104</v>
+        <v>0.7463819025479502</v>
       </c>
       <c r="D3">
-        <v>1.409469658895177</v>
+        <v>1.531761101935835</v>
       </c>
       <c r="E3">
-        <v>0.7522648609778715</v>
+        <v>0.7564170359425745</v>
       </c>
       <c r="F3">
-        <v>0.7557067841118835</v>
+        <v>0.7622186643604321</v>
       </c>
       <c r="G3">
-        <v>0.767545930173578</v>
+        <v>0.7770276209792533</v>
       </c>
       <c r="H3">
-        <v>0.7524391359638646</v>
+        <v>0.756687626972869</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6784402355552254</v>
+        <v>0.6837215924857288</v>
       </c>
       <c r="C4">
-        <v>0.7602560484723868</v>
+        <v>0.7699562596260292</v>
       </c>
       <c r="D4">
-        <v>1.082814381615641</v>
+        <v>1.170512505105007</v>
       </c>
       <c r="E4">
-        <v>0.7427419605067365</v>
+        <v>0.7467924631479942</v>
       </c>
       <c r="F4">
-        <v>0.695716271214237</v>
+        <v>0.7012780821354155</v>
       </c>
       <c r="G4">
-        <v>0.7489833093671484</v>
+        <v>0.7582039047428399</v>
       </c>
       <c r="H4">
-        <v>0.7427761591611421</v>
+        <v>0.7469217645471885</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7845089806605176</v>
+        <v>0.7920320214721451</v>
       </c>
       <c r="C5">
-        <v>0.7861785817351283</v>
+        <v>0.7962487799499285</v>
       </c>
       <c r="D5">
-        <v>0.3980077702589124</v>
+        <v>0.4105244968136729</v>
       </c>
       <c r="E5">
-        <v>0.7596649851233738</v>
+        <v>0.763918153379728</v>
       </c>
       <c r="F5">
-        <v>0.7775079597791049</v>
+        <v>0.7844444256025577</v>
       </c>
       <c r="G5">
-        <v>0.7722547943492591</v>
+        <v>0.7817840426466831</v>
       </c>
       <c r="H5">
-        <v>0.7593728668952565</v>
+        <v>0.7637190368229271</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7756754437877884</v>
+        <v>0.7829951580196046</v>
       </c>
       <c r="C6">
-        <v>0.7846734571989462</v>
+        <v>0.7947192688087488</v>
       </c>
       <c r="D6">
-        <v>0.2390097767754088</v>
+        <v>0.2511295960563111</v>
       </c>
       <c r="E6">
-        <v>0.7583094459532475</v>
+        <v>0.7625457610805318</v>
       </c>
       <c r="F6">
-        <v>0.7695806858902364</v>
+        <v>0.7763724083021228</v>
       </c>
       <c r="G6">
-        <v>0.766576297593929</v>
+        <v>0.7760571709281976</v>
       </c>
       <c r="H6">
-        <v>0.7579578215545946</v>
+        <v>0.7622870694416859</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.7937543922314764</v>
+        <v>0.8015667912701183</v>
       </c>
       <c r="C7">
-        <v>0.7892787435559668</v>
+        <v>0.7993966827599528</v>
       </c>
       <c r="D7">
-        <v>0.3706086512129885</v>
+        <v>0.3828568701346464</v>
       </c>
       <c r="E7">
-        <v>0.7601619967263648</v>
+        <v>0.7644317724559087</v>
       </c>
       <c r="F7">
-        <v>0.7866323612145677</v>
+        <v>0.7937910582919011</v>
       </c>
       <c r="G7">
-        <v>0.7730594823287936</v>
+        <v>0.7826180338824664</v>
       </c>
       <c r="H7">
-        <v>0.7598586426095999</v>
+        <v>0.764221243538187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.7384478743081042</v>
+        <v>0.7449368387269226</v>
       </c>
       <c r="C8">
-        <v>0.709022198366438</v>
+        <v>0.7180895215873215</v>
       </c>
       <c r="D8">
-        <v>0.3085576887316853</v>
+        <v>0.3144157603848184</v>
       </c>
       <c r="E8">
-        <v>0.7391238751082457</v>
+        <v>0.7431321011672083</v>
       </c>
       <c r="F8">
-        <v>0.7321063414733795</v>
+        <v>0.7382069388759523</v>
       </c>
       <c r="G8">
-        <v>0.7053807860549471</v>
+        <v>0.71399605079497</v>
       </c>
       <c r="H8">
-        <v>0.7388605506954972</v>
+        <v>0.742960681489826</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.8003621903725986</v>
+        <v>0.8082516464155737</v>
       </c>
       <c r="C9">
-        <v>0.7651098808327893</v>
+        <v>0.7749148947119088</v>
       </c>
       <c r="D9">
-        <v>0.473483256811177</v>
+        <v>0.4907369594154016</v>
       </c>
       <c r="E9">
-        <v>0.7585389402505501</v>
+        <v>0.7627814978018569</v>
       </c>
       <c r="F9">
-        <v>0.793596799859918</v>
+        <v>0.8008314410081749</v>
       </c>
       <c r="G9">
-        <v>0.7539730207653869</v>
+        <v>0.763268773452269</v>
       </c>
       <c r="H9">
-        <v>0.7583282497459432</v>
+        <v>0.7626641276885489</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7818163400102417</v>
+        <v>0.7901193396688405</v>
       </c>
       <c r="C10">
-        <v>0.7863713395062196</v>
+        <v>0.796455973792794</v>
       </c>
       <c r="D10">
-        <v>1.275327798525587</v>
+        <v>1.371529122152553</v>
       </c>
       <c r="E10">
-        <v>0.7585068958190951</v>
+        <v>0.7627957419852761</v>
       </c>
       <c r="F10">
-        <v>0.7849380575792405</v>
+        <v>0.7924859041778979</v>
       </c>
       <c r="G10">
-        <v>0.790092921855691</v>
+        <v>0.7998265137805515</v>
       </c>
       <c r="H10">
-        <v>0.758778634037358</v>
+        <v>0.763161247005138</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.7742004243341288</v>
+        <v>0.7824232959475607</v>
       </c>
       <c r="C11">
-        <v>0.78756876434718</v>
+        <v>0.797663049898691</v>
       </c>
       <c r="D11">
-        <v>1.162935609077621</v>
+        <v>1.251478324715245</v>
       </c>
       <c r="E11">
-        <v>0.7591333756474891</v>
+        <v>0.7634202320927728</v>
       </c>
       <c r="F11">
-        <v>0.7772108670126719</v>
+        <v>0.784691742817359</v>
       </c>
       <c r="G11">
-        <v>0.7882143195690925</v>
+        <v>0.7979297844464777</v>
       </c>
       <c r="H11">
-        <v>0.7592666848883107</v>
+        <v>0.7636471422987593</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6573517222229365</v>
+        <v>0.6650539704803021</v>
       </c>
       <c r="C12">
-        <v>0.7885821271855722</v>
+        <v>0.7987059996499829</v>
       </c>
       <c r="D12">
-        <v>0.614786416514029</v>
+        <v>0.6630645759324548</v>
       </c>
       <c r="E12">
-        <v>0.7528757606733335</v>
+        <v>0.7571573853816395</v>
       </c>
       <c r="F12">
-        <v>0.6700888040979659</v>
+        <v>0.6770459255562024</v>
       </c>
       <c r="G12">
-        <v>0.7731175937837654</v>
+        <v>0.7826881838904574</v>
       </c>
       <c r="H12">
-        <v>0.7525739072257516</v>
+        <v>0.7569472511483959</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.77706033667528</v>
+        <v>0.7853295825320202</v>
       </c>
       <c r="C13">
-        <v>0.7855739167611877</v>
+        <v>0.7956510506313477</v>
       </c>
       <c r="D13">
-        <v>1.115428100200711</v>
+        <v>1.200349245239656</v>
       </c>
       <c r="E13">
-        <v>0.7577073778010187</v>
+        <v>0.7619929502133752</v>
       </c>
       <c r="F13">
-        <v>0.7789775295704988</v>
+        <v>0.7864898091764774</v>
       </c>
       <c r="G13">
-        <v>0.7854760679862451</v>
+        <v>0.7951664937103869</v>
       </c>
       <c r="H13">
-        <v>0.7578752676462324</v>
+        <v>0.7622543408450436</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_hoog.xlsx
@@ -496,7 +496,7 @@
         <v>0.7817840426466831</v>
       </c>
       <c r="H5">
-        <v>0.7637190368229271</v>
+        <v>0.763719036822927</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -666,16 +666,16 @@
         <v>0.7987059996499829</v>
       </c>
       <c r="D12">
-        <v>0.6630645759324548</v>
+        <v>0.663064575932455</v>
       </c>
       <c r="E12">
-        <v>0.7571573853816395</v>
+        <v>0.7571573853816393</v>
       </c>
       <c r="F12">
         <v>0.6770459255562024</v>
       </c>
       <c r="G12">
-        <v>0.7826881838904574</v>
+        <v>0.7826881838904572</v>
       </c>
       <c r="H12">
         <v>0.7569472511483959</v>
